--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/5_Aksaray_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/5_Aksaray_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EDDEBCE-B513-4FAC-B9F1-646603E191E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F744C05-34E7-4665-9291-B68EE64AA2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{5F3465F5-EF7E-4E9C-8B45-BBC0A896CDC4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="675" xr2:uid="{7CEE3990-E6D5-499C-90AA-AA9162D461FE}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -949,14 +949,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{15A7EFB7-0C55-41B2-8089-80E996132B76}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{909821C2-1232-45D1-9DCE-5F8B793FB58F}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{17E8B8C2-4F21-4B17-B2FA-AE5DAE51BB6D}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{07D399F1-082D-4BEF-AF5A-9EA986F2D698}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{A5DF4659-1E38-4352-832E-0D321A9DF72A}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{D8AF09EE-87E6-4CC2-8396-200757BFA82F}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{5B5C080C-CAFC-4B50-ADD9-4C44970A0F2F}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{38AFCB5D-F06A-47B4-AC30-B0896C8ECBFD}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{D3F38C14-386D-46DC-9B74-2FEB98454377}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{8C69E7F1-7668-484F-9280-E564C60175EB}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{C7E6BF44-CD66-48F8-83D1-D980C3C3B505}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{36B0D8E3-F5C1-41B8-BF43-ADE38F8379B2}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{CED689D1-0C1C-4DB5-8E16-E8934421A91D}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{BCC02087-A5D2-4941-A7B8-917300C7B9B4}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{99B9A2A1-453A-4117-B25F-9B9EF888F547}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{92961837-F462-4B28-BE14-48FF00CF69F6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A11E949-F21B-4364-94D1-DFCA1C71175B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C007E9-0F5B-494B-B119-A055E88418C4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2595,18 +2595,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A1524FA3-ED15-48F9-98D4-6DC97F4A8D8B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{12FF0AFE-8B6E-4925-B725-729EE77A669F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4BA487E7-92AC-480F-8C52-00CE13B947C2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A7BEE903-C163-420A-8BA6-13C84203FBC7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FB8F0D0C-F903-4127-8E34-E749AEF0D004}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EC491CB6-8059-4750-9648-15798E6C7E08}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{12B9739D-05C8-4CF1-9DD3-D9E670147CB0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{69927776-D905-4E13-B0BA-29C9959389C7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5C2F2465-C8F5-4FFA-B2D6-B1DBCFCAB20D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8C020545-8845-41CA-AA61-EECC1F17E2ED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{230DBA48-B867-4D98-8B14-20DCB00AAD0A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9196184F-55CC-4587-AAE6-57E83E128A98}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB80FBEA-7A5C-4995-9279-B1DD9CE5D2FB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D07F77CE-F5B1-4ECA-A3C7-CFBAF0F992C9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0C04D6C6-AC18-47A8-AF31-CF6FC0820D26}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{719E0DB7-153A-4EC1-B98E-A1BBBCBAEFEE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C39E51D-803E-4339-8682-547A15AC1229}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{59BA880A-0D50-4DC1-A1AF-1F0D52058E76}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{3E8DE4EF-4D39-4873-A127-075AEE75FAD0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{30F5BF88-25ED-4FF4-B9EB-CDC3320BC318}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8B90F9B2-7790-4163-BF87-E1779AB17AD5}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{88A9C7AE-D149-4312-866C-C6EDA6DC6FB9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6D698D90-8D84-4845-A725-3EC38934C5E5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{480DBB1B-EA5B-4494-A641-83B4A6ECBD78}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2619,7 +2619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7C5796-7DBC-4743-A8D7-94ADCB9B4B30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFE8CB01-413E-45B7-B86E-83A27C1732B1}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3866,18 +3866,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4E721A10-1D09-4B68-8EFC-CDB36B38AE2D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D905F1A0-40A7-43EE-A421-82F422978C13}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{57CB1FFE-9F37-4752-9A8A-0F8995DDD79C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{38596A86-AF1B-4F60-A242-D26EED38F7F7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{29D42385-53CC-4119-A659-4669A7192992}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B759D0BA-3A09-4D71-BCB2-A08B44B8CF71}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{D70F5DA3-8A85-436E-A23C-101DEC458854}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A571EC7D-ECE5-46C3-B284-0DB9F0140E0F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1059365F-6712-4FF8-B374-4957F8CB6355}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{736DE2C7-6AB7-4F30-9104-9482968330BD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{16A3E1D5-360F-48EF-B1BC-4AFA8053CEC1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{07E79702-99A9-44C6-87C9-4C6C1013A9B5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E5894E6-D209-4A07-8392-128058794257}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{48ECEFB4-CBAC-4840-9892-6751C17DEFE1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9129C23E-01F7-4F72-AA16-1D426ED0BFD6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5B2637F2-F0BC-431A-8BBF-7C54A749D244}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{74307075-F892-4D59-B451-52C9490545E9}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{778C54D1-5F50-4AC0-9F96-938757A8FE05}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{012D007B-71D8-4BA2-A0E2-AC164782809E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7DD42899-CAD9-41DB-8630-FE5FC13A470C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AAF7A0F9-BA06-4ED2-81C1-6A66BE151305}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1F853058-FEF8-432D-B41A-1770EE18D98D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{54910685-6B99-442F-ABA4-7657C33AD05F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B2A206C0-CD97-4157-B9D6-4D7D877C7007}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3890,7 +3890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FFF6AF-423B-458D-9F2C-42ED605BB251}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E80A12-44ED-4D18-82C1-803C477CD4B8}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5137,18 +5137,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6CEF4989-BF50-467F-B610-9A697C488244}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{815F3BDF-B2F5-415F-BE82-8E4CAC0D22EE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C35F0B43-5669-4CBB-8CF4-9549A4BC2BDF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{19A8765E-98C3-4A00-9950-D4425A3985BC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6701F21E-C2F9-4BB7-8F59-E6C5BA59F4B5}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F0B36D67-534F-4EC1-900E-674A2194B46F}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{7922C1E2-FF91-4AAC-BDA5-8BA5170EBF65}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB3C400D-0D23-4950-8490-D008AAADC623}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{620E7BBC-66C4-4C76-A527-DBD9630D7861}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{933CBD48-3947-4DA1-8855-3CEB40E8C197}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{379FDBF1-6B5B-4BC5-8C11-D0CBB7C130AF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FF66AE4F-0B13-4625-9E0D-D7A7C769547D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{516BD32C-DADB-4811-9BFE-83A4ECA53C28}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{091A9A90-98E9-4572-9181-138CA2D612FD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FCDD5F34-FEB6-478D-9CE5-CFCF3FCFFB10}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{31417745-4455-4D53-906A-945A2AEC249A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CEB3F5CB-F3A5-4C94-9EC0-BCE0F79CDB34}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BE5BB5A1-FABD-428B-B724-102146E20242}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{57CCF71A-7B17-40B5-85CC-616BC87070DA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A075FD91-0B4C-4FCE-B51F-62E385D98423}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C0BE19A5-04EA-4578-A1EC-AF1FC14C0445}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C68F1C61-436F-4961-89CE-70945CF8BA5D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3209A1A5-FB41-409E-A9EF-E52907EC1A22}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9B4610E3-6DCA-49F6-80AF-2BF3A0F91158}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5161,7 +5161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB0B58-4FDF-456D-8F22-4D6FD13F24D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BE25F1-C29D-4A3B-B71B-88B20E530654}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6394,18 +6394,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{876FA4BA-8872-4BAD-AA22-D3663023502B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D975F985-3DE8-445B-8513-B4C62FE8E44D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0F3CF78C-8D28-40A0-B1E2-F341840B55A1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CA22345A-BD52-4D29-85CE-1C0AD230EF22}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D696D45B-3005-4166-B718-F4D2785EC9D7}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A51ED7F1-70E5-49B9-9FDE-4107E546DD7A}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{B313C951-52DD-4FC2-8106-EC4A605E10CF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{25E2CCDE-ABAC-4E0A-AA94-2C3E3B9D5E87}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{879BB6B5-11E6-4411-A83D-566911C7E0D6}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0EB9699F-524C-4E3B-A080-769C44792A05}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{96FD714B-62C9-40A2-BDC9-B6B93BEF94E0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A057DA66-3196-445B-BE96-AA6E191B2D41}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{253F033A-79AD-40A2-BF9B-0C546E09A191}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{87C00E33-EBD7-4E52-834D-8D4DDDCC8AD2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C9B0656F-C946-4E3A-BC68-3A7783BE0FFB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DC699653-115F-4B34-A20B-ABCC14D50C8D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B5D34B1B-C361-4438-96F7-44680D9F63E5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D08EC2FE-BA16-4B70-8802-10837F746590}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{1A23F099-983F-49EE-A465-4DBE3B41478E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8179C8FF-20E2-44F5-9131-C682F4F58D0E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6968B5A5-426F-45F9-9088-DD26D416E07B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{23227CB6-21A1-4978-A184-2050BDC83241}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7676B445-3E64-4D16-BC2E-F609606A3AC9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6582E2CC-06AC-4072-A378-FDA674B96E29}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6418,7 +6418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F90AD8-0327-4226-A825-2C09165FDF71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DD0F98-11E5-4398-95D8-128D635916AC}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7689,18 +7689,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A3AC74B5-22F9-4228-A325-58E99E378ADA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37D686A6-9E77-4930-81CE-E1BE80A039CC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0D61D5A2-C044-4676-8D4E-589BDA6D469E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{808A4345-53AA-411F-AD14-7DDA4024C97E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9093D545-4F3E-446D-A108-6E0C6200E42E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E4A64FC3-EA8A-4704-BCE2-CC075D745935}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{4BBF9ED9-2EEE-4BE6-B66B-FF20A10A05B1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F25ED9FB-F436-4371-95FC-495D92229F9E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ACAFF2A9-CEF5-4E5B-BD92-6A270A03A9DE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{97343638-4174-4BB7-AEA7-6B66EF0D4082}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4E61D1D-3D74-41EF-B11C-1465ED43D4DD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BBB43325-1F31-4C65-BE2D-CD117780E419}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8B387C42-924A-4319-B982-BD0DB431997A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B3F32373-E02B-44C8-808D-9F537C8BCEC2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7904A715-AD80-414B-8CE4-82DF83C1758F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F0B994A1-A5B8-49DC-90E0-7F26191E367E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{752079D0-BAA9-4797-BC0E-3994CA1CE6FE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{117C1D33-F1D7-4B10-94FD-45D4BDE93144}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{68E4A8F7-FA10-42D8-8387-384AC3ADD837}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A4070FD-2E27-4DF8-8B25-AB2BDE99BA39}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D1C89DD3-962C-4FC8-A60A-35F1CDCDF0C4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BEFE04B1-F4CA-4A85-9CBA-F49F15ED4346}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8B4C1BEE-C901-4ED6-93DE-5A1401E16241}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D782DCC-D90B-4C5A-9745-3197351257D2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7713,7 +7713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B789EB4D-5FEB-4448-84FB-734526CD4AA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E59B88-98EE-44C5-91E0-CCB3C2066B3C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8984,18 +8984,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A335710E-5603-4D5C-BB61-A4664054A12E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27BE8029-E511-421D-BD99-C223B0151096}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EA44DDBB-CECB-4388-8A08-01D34DACCC2D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7E057374-739E-4EBC-899B-2E9349E5F4F4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{60B9B3CE-E9D9-43DF-A3E3-AA2B0C404838}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C8D46CFB-4A74-499E-A733-3B191B7D4272}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{10BEFA26-A0F0-4106-823C-ED415E28CD34}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8D21192E-1EA6-4F07-8A93-1C07247B42C9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5BBEC387-C3FA-4CAA-A83C-03516CD1A894}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DAA75DA2-3531-4AC4-870C-51B4785AEEED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8591622-7C3A-4681-899A-35757E2EBA2E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{64BE51AB-FBA2-4D96-8875-525225D84DCB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9ADF1EBC-F877-42DE-9554-8D344EFF272D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DDD7FBD9-8EEE-40F4-A28A-1375EE34C4E8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DD553E97-F338-406F-AE4D-3A25423CE455}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F579848D-42DC-4215-BAFF-E2E52813518D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E6952C04-3C28-475E-9FA0-14CA4C08051D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{84F76261-0DE9-49AE-A8EB-AEED471D5BD3}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{4B01CCC0-2426-4131-B5F7-4B436E8F197C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{427443D1-278D-4BD4-8244-DC7377066E93}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8A2BB635-04FD-4554-BFEB-89C3D3A874E4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{50268D10-EDC0-43D6-8754-495C918C8C3F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2CF757E-FD13-4A8C-9EF5-161CF41593DB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9DE6A5DA-EEFF-41C0-99FA-E73FF31A34E1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9008,7 +9008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4B809D-49DF-4D62-B596-B1270FA29EE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E3C680-DEE2-486C-8E01-55FB6CBEA051}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10279,18 +10279,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DC4858FB-ED79-4D97-A1B9-E7819443463F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{858926A2-C982-4653-9F47-4A3C59FFCA82}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6296EAED-9514-4D3B-810A-87EF6B6190A1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4B7764CC-A1EB-4564-B0F0-7D59E186805B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D279EE26-F2EF-463B-AEDD-16F00FA478DA}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B3A13379-F0D8-46F9-BC11-95CFA595549F}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{63B52A3E-335B-4DFA-9794-D1A24D9CE6DF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EB6CF00B-D677-498C-80DD-F28767C7A2F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C166A968-81D0-4362-A041-BCC1383174E9}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FA070E84-D494-4816-B4E4-FDF0D1D47E73}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1540A14E-AD10-43D4-9984-94F2C4BED975}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{94052333-9615-46E2-888C-B2129711265E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2CAB40A8-9665-41A7-80A6-A3CD19A9D6A7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE550FA4-B9E6-4378-80BA-E1C3C5162870}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9DD4D188-A15E-49EB-AE95-5817AF51CC65}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BA71D0BB-0390-4B27-94F2-AB571E37CAF6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FA953C1B-ED96-4EA1-AB68-4E2527FBF68F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1480CF28-C66A-4864-9FCC-89A6AEA654ED}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{8BC93D2A-C290-42F0-97D1-8EFB7261A8F2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D12AF4F1-7AB7-4DBC-93A9-02BF10663D49}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C9E971D0-F8FB-4B7B-8E26-A3E96C812FE8}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B85B5522-812D-45AB-A0AA-6F958B17C660}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A0A0D37-82D2-4668-A4DB-8D2B06184FF4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D6DDB50A-8676-4DA7-93C2-9AFBBBB0AF51}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10303,7 +10303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FFAEBC-474A-4EFB-899D-62AF9B12E453}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9BE2BE-128F-40CC-88F6-A08E7C5578DF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11574,18 +11574,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{772E785D-4693-481D-96E0-D3F1427B9108}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65915935-55A7-474D-8369-5A18BB897150}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{46CDD673-E476-41F0-85AB-8D7C262B856F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4792EA64-0FC8-4299-8216-C455852FAFC5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AEFC750E-E786-4DDE-8297-A28CF87BBFCB}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{170D2044-050B-4806-BA27-4FCF5E336C73}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{ED9D8694-4C59-40BB-AF8A-F2D1F758D966}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DE74E711-F9B3-463F-827F-DC31D97633E3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AD54A2AE-551E-4609-A87A-AD3FF1F4ACB5}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B2CF7704-957C-4D21-BCB6-047C27F7852D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{90306F47-C310-4C37-BD8C-F4F1B0EA2B98}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8A54E0C6-2268-49F7-94F4-10C03F119FA0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BBFDAA5F-4409-41D3-83DD-13BFEF0CB252}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE3676EB-0BF2-48C2-BC34-592B6F3EEDED}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1DE3ED27-6C8F-4BE0-BF17-82C03D853996}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4AF4CECE-39FB-4DAF-A1A5-06CF7490607A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{78A81EEF-7326-49D3-B0B2-8F60414EEBE7}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4D4812D5-00C8-4E1D-929F-B6C295BE6475}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{BA1F63A3-5C6B-4FF3-AF05-600589F2A2C9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5803FC5-2794-4B86-85A8-C4582189EEF7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BAC54BD6-99B9-45F0-A523-F7934DDCEEBB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D5EF5EB8-7171-4533-9E35-88F952CE6B32}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{245E41B5-A902-4456-BDAB-DFB26A6AB33F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BF49C7C2-248C-404A-BCD4-B19CFBE22921}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11598,7 +11598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BB9EFE-0193-4D31-99D9-6AFFA3440751}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D498BD-3290-4FAD-84D0-BD54B6EB6819}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12861,18 +12861,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1EAC5878-B495-4079-B8B0-AC0E9F045834}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8CF8CD89-6575-494B-A62E-A7325C2FF4C5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C00B2284-C2DB-47E1-91DB-0215BCA9EFAA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{188C9596-D799-4490-9764-73DAD91D92A4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3EEBC872-97D0-4488-98B5-C2EAAE87033F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8B7A3440-2C3B-4B51-8F18-964ED4F8066B}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{934120C3-16DD-4F02-9006-A86446C4C24B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C2ACD17A-32D6-4CAC-95F4-71009C1A0587}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FF93392A-FC2C-4995-947C-3F9FAEDE2C22}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{22EDE087-B0BA-4E8E-8978-4E076BBD11ED}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4D8FA53D-2245-48DF-9CA3-D93098E2931D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BC1A5116-4E81-4343-85A3-A2BCA118EF3F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{89C91017-63E4-46B8-9F04-605A9E066EA2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E7327A07-3BD8-4A1D-A60A-B6451D84A999}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2CC04385-306C-4F66-85A2-689DC0F83C4E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F189D2F6-C3B2-4F87-ACD8-AB0B536D3820}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{48ACA846-8165-4B7F-B19C-84887F79917F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F1D3C03C-9611-42F6-A510-D61CC061BF93}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{872BFBEB-0BDC-4934-83D3-0127A7721088}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{09A4E8E8-DF27-48B0-86CF-0824129899CC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F74723D9-8ECA-453B-9491-411BFB9E6DDE}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9CF169E8-75C9-43FB-A835-0FC4E1E599A6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E0375B0-BCAD-41D3-895D-C41BB0561B93}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A2D41D43-937B-48AA-967D-FD47821F4710}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12885,7 +12885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393F4E05-28DB-4FBA-A298-99A651E1453D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E556C2-EA6C-475C-ABFB-87E54573D46F}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14134,18 +14134,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1269AC65-9F6F-400D-B4A1-73BC98F1A496}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BF284434-5585-41B1-8240-737FEADF144D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BFCE9220-2C22-4684-AF4C-D01A84988FEB}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D321F69C-1109-462E-9CED-5DD4FF6C9B81}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6F4D55BC-5B9B-4BA8-A255-61532D524F09}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FC5A71CE-07F0-4BFB-8148-4428341BF948}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{8EE9CBFC-56C9-4E1F-9340-52835F0A3968}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{56DAF155-2531-4905-B1F7-2B4DA6461F36}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{624E0E37-5B67-42B2-8081-069283049413}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{980288F1-7F41-4451-86B1-9F7CA619BA93}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F9CAD22A-6890-4577-B83E-CE2237B5DEB1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A23827FA-A725-4825-B98C-00EF74C6D183}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{042C3652-6754-4194-9A20-BE1C5C59CDB0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AF0C7051-FB10-455E-9E1F-DAEDEAD9C6CB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9AD025EC-0AB6-4C92-8EB4-6217BA46901E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FA0E3B1A-62B0-4AAE-9F59-8F34CA36D5DE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{236E98E4-DD6D-4AA9-A0CF-163E5728DC25}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2DE9AA1A-2320-4198-B899-9C28146CA224}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{AFBD4D5F-BFDF-43C7-B828-FC0DA7F2EB93}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{84786D38-057B-4E20-90EF-5D5CA0B03E99}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1001F8B0-6C21-4D87-9752-D90B2D735019}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{444C67D1-5FF9-4815-90B4-2DDC049D062F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1113EB12-B48F-45AA-B3B9-82D20CE81D92}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5C3D7FA1-FBD0-4865-BCF7-D7B8D0E83373}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14158,7 +14158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F091B8-B510-4F52-88F0-B7F695B314E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B40BC6-5BE2-4147-B572-8C3EB8FD0C31}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15407,18 +15407,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2162BB9-28A4-4209-B948-A6EDC1EF3B06}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{08484961-1565-4016-AA01-3E8E2A62646B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2711AF0B-D472-4A81-BD37-23ADB05A0596}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E8EF1242-BDC1-43E6-930E-43C8377D6E6E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F1B8D039-EEB7-4F8C-A212-91761F418354}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FA2A79AF-DE3A-4FFB-9BC5-816D17DA5A5D}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{D16F0981-17FA-44B4-BB19-86639A1722ED}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DA18C7F9-DD71-4F29-AC2D-50D6F2F81A90}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C9B0AA9E-056F-4012-AD6C-0E33D325353D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DA231D04-89B7-4708-A982-D5B0C9EB8439}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F793678-532A-48C0-B0F2-C82967B2F7D2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9A6150D0-E7F8-4248-A450-CBC9C31584AD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9F3B6707-8B39-40FC-9E4C-1D6AB705184A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{56246920-BF40-4BD5-B7D0-CDB8244B5B1D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6435B908-2D2D-4898-852B-C02501E7A2CC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4CA36BEB-054E-4634-90D1-9A9F0A2885A2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BE306B65-D21A-45F6-AD3B-5A166868C144}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D9A35462-984D-4A12-A779-7DE0EC271461}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{36BE60CD-3B76-442E-8BF0-34E85C885E96}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{62555ECF-FD50-4E7B-8CA2-9EDFD8C82621}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A57C1B14-F652-459D-A072-2E5790A16773}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BD8EC370-1DE4-4D52-9A97-CD5616389948}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B008CE83-6441-4718-96A6-2D600DBA6294}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AD252E3B-BB29-4CFA-8220-DDEB1E44F7FC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15431,7 +15431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AFA522-25A8-4504-A538-B9A0CE651EBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CAD745-2163-48A7-9ADE-A933579820B9}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16680,18 +16680,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6DEB1887-23B5-4823-8186-FCDD208448CA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5649C588-BAC9-4034-901D-375E9465D12D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{48B4E7AC-B7DD-4BB0-BBBC-433CAC73D58C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{991B2913-E68F-461D-976A-80890FA15290}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4815D501-F2FF-4731-BD08-B39E49373496}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B327553F-208F-4FF6-86B0-8646741098DC}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{6CEA086F-687C-4409-B61B-C03257826C57}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{31257DD0-01C3-4FFE-96EE-50BC25332661}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{691D9502-1DFD-4B30-A72F-3082B9E4283E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{884AEF7F-501A-43B7-8663-6CB6EE54CB8C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3EBBB429-9E61-498A-8C1A-C3ADC1A17A85}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C1811826-A3C9-44AD-A185-94A2FD43C8CD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{33F8AA80-86DA-4FAF-9FC6-F1FDAE8BFCE3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2753F2B4-4291-4951-85D6-94C9A3A7FE68}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6DED2F9A-1BBC-49ED-943B-E8CA17626553}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4514B789-0EA7-42BD-ACA7-6E1C634DF10E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B7266250-2C35-4F62-9094-15D185F78459}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{21FA5655-C0AF-435A-847C-79A8E31FAAAD}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{7802F81E-F6CD-4880-B615-B3A0F4D56F7E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75EF730E-3C28-4877-B035-A3110F41D2B1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3822335A-CD84-4224-9F13-EC2A46D9041A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BF1E4D55-5937-4ACA-9FAA-183D4150CEED}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AE218584-A631-444C-BBC7-18857F33ECC1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{62AF2ACE-837C-43AA-A09F-F032A3FF4CEE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
